--- a/InputData/io-model/GEbIC/Government Expenditures by ISIC Code.xlsx
+++ b/InputData/io-model/GEbIC/Government Expenditures by ISIC Code.xlsx
@@ -7431,109 +7431,109 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03251307431019768</v>
+        <v>0.00800554476769829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001543201664529244</v>
+        <v>0.03718093429243172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04262454098247073</v>
+        <v>0.01651556812775156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002159775383360131</v>
+        <v>0.03014806460128146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02273176606937927</v>
+        <v>0.002456945691160374</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515238468899154</v>
+        <v>0.0009680266521925276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03430237057290995</v>
+        <v>0.001630252534372018</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08207538784555098</v>
+        <v>0.003338912214397779</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02562875931062424</v>
+        <v>0.00613332502259482</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008087662606678267</v>
+        <v>0.0006783218714613196</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02068532193289286</v>
+        <v>0.001492421298095608</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02131343786882482</v>
+        <v>0.004607991906929692</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01144985633914285</v>
+        <v>0.0006073327254271114</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02890050044156608</v>
+        <v>0.001036342227098777</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0332146709432592</v>
+        <v>0.003134823020978324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02240465518597153</v>
+        <v>0.001047416843595187</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03036309869424902</v>
+        <v>0.0008243650161362194</v>
       </c>
       <c r="S4" t="n">
-        <v>0.005315871057543261</v>
+        <v>8.984214355762234e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01138319254870535</v>
+        <v>0.0006088989897662932</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05636432228509836</v>
+        <v>0.001489625437887362</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01709920854040125</v>
+        <v>0.005225410486363665</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01767697791026194</v>
+        <v>0.00439365509946645</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03880144268039311</v>
+        <v>0.007688805633126627</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01852670115347938</v>
+        <v>0.004057752348107797</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01462036764326589</v>
+        <v>0.005297996715271988</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02262711289294482</v>
+        <v>0.01002773407981162</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01077453228867132</v>
+        <v>0.003353085672375054</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01076942906159166</v>
+        <v>0.0006008942301709348</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02008564777436891</v>
+        <v>0.002139108671080252</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01485304821481962</v>
+        <v>0.004786818264616974</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.08528496781319983</v>
+        <v>0.01533516290812533</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0142217912946656</v>
+        <v>0.009190290925008008</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01512479262074644</v>
+        <v>0.002261397239270025</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02299336157921657</v>
+        <v>0.005001381294806605</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01585009839857485</v>
+        <v>0.003155749554641522</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
